--- a/src/aegis/etls/key_themes/config/categories/key_themes_categories.xlsx
+++ b/src/aegis/etls/key_themes/config/categories/key_themes_categories.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,170 +436,294 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>transcript_sections</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>category_name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>category_description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>example_1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>example_2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>example_3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>QA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Capital Management &amp; Liquidity Position</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Capital ratios (CET1, Tier 1), regulatory capital requirements, capital deployment strategies, share buybacks, dividends, liquidity coverage ratio, and balance sheet strength</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>QA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Credit Quality &amp; Risk Outlook</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Loan loss provisions, net charge-offs, non-performing loans, coverage ratios, credit risk by portfolio segment, impairment trends, and forward-looking credit indicators</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>QA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Revenue Trends &amp; Net Interest Income</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Revenue growth drivers, net interest income and margin trends, fee income, trading revenue, wealth management income, and sensitivity to interest rate changes</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>QA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Business Segment Performance &amp; Strategy</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Performance by division including retail banking, commercial banking, investment banking, wealth management, capital markets, and segment-specific strategic priorities</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>QA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Loan &amp; Deposit Growth</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Loan portfolio growth by category (commercial, consumer, mortgage), lending pipeline, deposit growth and mix, funding costs, deposit betas, and customer acquisition</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>QA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Expense Management &amp; Efficiency</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Operating expenses, cost control initiatives, efficiency ratio, compensation costs, technology investments, real estate optimization, and productivity improvements</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>QA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>Digital Transformation &amp; Technology</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Digital banking initiatives, technology investments, AI/ML applications, cloud migration, fintech partnerships, cybersecurity, and innovation programs</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>QA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>Economic Outlook &amp; Market Conditions</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Economic environment commentary, interest rate outlook, inflation impacts, recession scenarios, market volatility, geopolitical risks, and macroeconomic trends</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>QA</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>Strategic Initiatives &amp; M&amp;A</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Mergers and acquisitions, divestitures, strategic partnerships, business transformation initiatives, market expansion, and portfolio optimization</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>QA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>Regulatory Updates &amp; Compliance</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Regulatory changes, compliance matters, stress test results, Basel requirements, regulatory interactions, and policy impacts on operations</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>QA</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>Forward Guidance &amp; Outlook</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Management guidance for future quarters, full-year targets, growth expectations, strategic priorities, investment plans, and forward-looking statements</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>QA</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>ESG &amp; Sustainability</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Environmental, social, and governance initiatives, climate risk management, sustainability targets, DEI programs, and community investment</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>QA</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Significant business content that does not fit into the predefined categories above but is material to understanding the earnings call discussion</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
